--- a/biology/Botanique/Évariste_Mertens/Évariste_Mertens.xlsx
+++ b/biology/Botanique/Évariste_Mertens/Évariste_Mertens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89variste_Mertens</t>
+          <t>Évariste_Mertens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Évariste René François Mertens (né le 9 décembre 1846 à Breda et mort le 23 mars 1907 à Zurich[1]) est un architecte paysagiste suisse d'origine belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Évariste René François Mertens (né le 9 décembre 1846 à Breda et mort le 23 mars 1907 à Zurich) est un architecte paysagiste suisse d'origine belge.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89variste_Mertens</t>
+          <t>Évariste_Mertens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1846, Évariste Mertens est originaire de Belgique. Après avoir terminé ses études à l'Institut horticole de Gand et son apprentissage en Angleterre et en France, il s'installe en Suisse à l'âge de 24 ans. Il y fonde avec son condisciple Arnold Neher une entreprise horticole à Schaffhouse.
 Avec le paysagiste Otto Karl Froebel, il prend une part importante à la réalisation du jardin public du Zürichhorn à Zurich. Il crée sa propre entreprise de jardinage dans cette même ville, reprise ensuite par son fils. En plus d'équipements publics, Mertens a également conçu de nombreux jardins privés.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89variste_Mertens</t>
+          <t>Évariste_Mertens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parc de la villa Patumbah, Zurich
 Parc du château Sihlberg, Zurich
